--- a/AI Excel sheet.xlsx
+++ b/AI Excel sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vfiler1.lec-admin.dmu.ac.uk\Home3\P2419473\Year Two\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Year Two\AI\AI Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667D2DCD-4BC0-4469-8B62-6462C2846FA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58E7853-C011-4BB9-A19B-D4EB63CDD100}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{4885B63F-A160-4F03-8E80-DC62420CED2B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{4885B63F-A160-4F03-8E80-DC62420CED2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Attendance" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -618,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54ACA6E1-9905-41FB-A868-8339E0F1C052}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,6 +716,17 @@
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>43886</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -725,7 +736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB6555C-7E04-40C4-8EBB-2A31159105C2}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>

--- a/AI Excel sheet.xlsx
+++ b/AI Excel sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Year Two\AI\AI Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58E7853-C011-4BB9-A19B-D4EB63CDD100}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B961F3D2-B276-4738-8B85-DCF22D75A091}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{4885B63F-A160-4F03-8E80-DC62420CED2B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>Due 27/03</t>
+  </si>
+  <si>
+    <t>WFH</t>
+  </si>
+  <si>
+    <t>WFH = Work from home</t>
   </si>
 </sst>
 </file>
@@ -621,12 +627,12 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -704,6 +710,9 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -722,7 +731,9 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
       <c r="G7" s="2"/>
